--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -528,7 +528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -1061,7 +1061,7 @@
   </si>
   <si>
     <t>dateTime
-Period</t>
+PeriodstringAgeRange</t>
   </si>
   <si>
     <t>When the procedure was performed　プロシジャーが実施された時期</t>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>85</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -497,7 +497,7 @@
     <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
-    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL.</t>
+    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL。</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t>A request for this procedure　このプロシージャの依頼情報</t>
+    <t>A request for this procedure このプロシージャの依頼情報</t>
   </si>
   <si>
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
@@ -651,17 +651,10 @@
     <t>Classification of the procedure</t>
   </si>
   <si>
-    <t>検索、ソート、表示のためにProcedureを分類したコード（例：「外科的Procedure」）。</t>
-  </si>
-  <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供する必要がある。 
-【JPーCORE】JP_Conditionに合わせて必須。</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategoryCodes_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -670,7 +663,41 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Procedure.category.id</t>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type
+</t>
+  </si>
+  <si>
+    <t>Identification of the procedure プロシジャーの識別子</t>
+  </si>
+  <si>
+    <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
+  </si>
+  <si>
+    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
+  </si>
+  <si>
+    <t>0..1 to account for primarily narrative only resources.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>OBR-44/OBR-45</t>
+  </si>
+  <si>
+    <t>Procedure.code.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -685,7 +712,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Procedure.category.extension</t>
+    <t>Procedure.code.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -704,120 +731,38 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Procedure.category.coding</t>
+    <t>Procedure.code.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system　ターミノロジーによって定義されたコード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-ターミノロジーによって定義されたコードへの参照。</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。詳細については、HL7v3コア原則を参照。コーディングの順序は定義されておらず、意味を推測するために使用してはならない。
-一般に、コーディング値の多くても1つだけが　UserSelected = true　としてラベル付けされる。</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Procedure.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept　この概念のシンプルなテキスト記述</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.
-データを入力したユーザーによって見られた/選択された/発声された、および/またはユーザーの意図された意味を表す概念の人間の言語表現。</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.
-多くの場合、テキストはいずれかのコーディングのdisplayNameと同じである。</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.
-用語のコードは、それらを使用する人間のすべてのニュアンスで常に正しい意味を捉えているとは限らない。または、適切なコードがまったくない場合もある。このような場合、テキストはソースの完全な意味をキャプチャするために使用される。</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type
-</t>
-  </si>
-  <si>
-    <t>Identification of the procedure　プロシジャーの識別子</t>
-  </si>
-  <si>
-    <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
-  </si>
-  <si>
-    <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供すべきである。</t>
-  </si>
-  <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>OBR-44/OBR-45</t>
-  </si>
-  <si>
-    <t>Procedure.code.id</t>
-  </si>
-  <si>
-    <t>Procedure.code.extension</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>medical</t>
   </si>
   <si>
@@ -996,6 +941,15 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Procedure.subject</t>
   </si>
   <si>
@@ -1007,7 +961,7 @@
 </t>
   </si>
   <si>
-    <t>Who the procedure was performed on　プロシジャーが実施された対象人</t>
+    <t>Who the procedure was performed on プロシジャーが実施された対象人</t>
   </si>
   <si>
     <t>The person, animal or group on which the procedure was performed.
@@ -1036,7 +990,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of　一部として作成されたエンカウンター</t>
+    <t>Encounter created as part of 一部として作成されたエンカウンター</t>
   </si>
   <si>
     <t>プロシジャーが作成または実行されたエンカウンター、またはこの記録の作成が緊密に関連しているエンカウンター。</t>
@@ -1064,7 +1018,7 @@
 PeriodstringAgeRange</t>
   </si>
   <si>
-    <t>When the procedure was performed　プロシジャーが実施された時期</t>
+    <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcdedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
@@ -1095,7 +1049,7 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure　プロシジャーを記録した人</t>
+    <t>Who recorded the procedure プロシジャーを記録した人</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
@@ -1115,7 +1069,7 @@
     <t>Procedure.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this procedure　プロシジャーを実施したと報告する人</t>
+    <t>Person who asserts this procedure プロシジャーを実施したと報告する人</t>
   </si>
   <si>
     <t>Individual who is making the procedure statement.
@@ -1135,7 +1089,7 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure　プロシジャーを実施した人々</t>
+    <t>The people who performed the procedure プロシジャーを実施した人々</t>
   </si>
   <si>
     <t>Limited to "real" people rather than equipment.
@@ -1240,7 +1194,7 @@
 </t>
   </si>
   <si>
-    <t>Organization the device or practitioner was acting for　従事した組織</t>
+    <t>Organization the device or practitioner was acting for 従事した組織</t>
   </si>
   <si>
     <t>The organization the device or practitioner was acting on behalf of.
@@ -1263,11 +1217,11 @@
 </t>
   </si>
   <si>
-    <t>Where the procedure happened　　プロシジャーが実施された場所</t>
+    <t>Where the procedure happened  プロシジャーが実施された場所</t>
   </si>
   <si>
     <t>プロシジャーが実施された場所。
-例：自宅での出生、レストランで気管切開など。</t>
+例:自宅での出生、レストランで気管切開など。</t>
   </si>
   <si>
     <t>Ties a procedure to where the records are likely kept.</t>
@@ -1282,7 +1236,7 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed　プロシジャーが実施された理由コード</t>
+    <t>Coded reason procedure performed プロシジャーが実施された理由コード</t>
   </si>
   <si>
     <t>処置が行われたコード化された理由。
@@ -1293,7 +1247,7 @@
 ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
 リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
 Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
- Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference　のいずれかにより、非常に精緻な理由の定義を参照することもできる。
+ Procedure.reasonCodeは要約コードの場合もあれば、Procedure.reasonReferenceを使用して、Condition | Observation | Procedure | DiagnosticReport | DocumentReference のいずれかにより、非常に精緻な理由の定義を参照することもできる。
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
@@ -1316,7 +1270,7 @@
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed　プロシジャーが実施された正当性</t>
+    <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
   </si>
   <si>
     <t>なぜそのようなPlocedureを行ったのか、その正当性を示す。</t>
@@ -1337,14 +1291,14 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites　対象の人体部位</t>
+    <t>Target body sites 対象の人体部位</t>
   </si>
   <si>
     <t>詳細かつ構造化された解剖学的な位置情報。複数の場所を指定することができる。例えば、1つの病変に対して複数のパンチングバイオプシーを行うことができる。</t>
   </si>
   <si>
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](extension-procedure-targetbodystructure.html).
-ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension　[procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
+ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
@@ -1359,7 +1313,7 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure　プロシジャーの結果</t>
+    <t>The result of procedure プロシジャーの結果</t>
   </si>
   <si>
     <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?
@@ -1386,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure　プロシジャーからのなんらかの結果報告</t>
+    <t>Any report resulting from the procedure プロシジャーからのなんらかの結果報告</t>
   </si>
   <si>
     <t>This could be a histology result, pathology report, surgical report, etc.
@@ -1404,7 +1358,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure　プロシジャーに起こった合併症</t>
+    <t>Complication following the procedure プロシジャーに起こった合併症</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
@@ -1428,7 +1382,7 @@
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure　プロシジャーの結果であるような患者状態</t>
+    <t>A condition that is a result of the procedure プロシジャーの結果であるような患者状態</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period.
@@ -1442,7 +1396,7 @@
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up　フォローアップの指示</t>
+    <t>Instructions for follow up フォローアップの指示</t>
   </si>
   <si>
     <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.
@@ -1466,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure　プロシジャーの関する追加情報</t>
+    <t>Additional information about the procedure プロシジャーの関する追加情報</t>
   </si>
   <si>
     <t>Any other notes and comments about the procedure.
@@ -1490,7 +1444,7 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device　操作、埋め込み、または削除されたデバイス</t>
+    <t>Manipulated, implanted, or removed device 操作、埋め込み、または削除されたデバイス</t>
   </si>
   <si>
     <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.
@@ -1547,7 +1501,7 @@
 </t>
   </si>
   <si>
-    <t>Items used during procedure　プロシジャー中に使用されるアイテム</t>
+    <t>Items used during procedure プロシジャー中に使用されるアイテム</t>
   </si>
   <si>
     <t>Identifies medications, devices and any other substance used as part of the procedure.
@@ -1568,7 +1522,7 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure　プロシジャー中に使用したアイテムのコード</t>
+    <t>Coded items used during the procedure プロシジャー中に使用したアイテムのコード</t>
   </si>
   <si>
     <t>Identifies coded items that were used as part of the procedure.
@@ -1889,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM97"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1921,7 +1875,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="73.0546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.48828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3840,7 +3794,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
@@ -3863,9 +3817,7 @@
       <c r="L18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3892,11 +3844,9 @@
       <c r="W18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3932,10 +3882,10 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3943,11 +3893,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3963,19 +3913,23 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3999,13 +3953,11 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -4023,7 +3975,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4035,35 +3987,35 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -4075,17 +4027,15 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -4122,37 +4072,37 @@
         <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4163,11 +4113,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4183,23 +4133,21 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4235,19 +4183,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4259,19 +4207,19 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -4287,7 +4235,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>76</v>
@@ -4299,19 +4247,19 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4348,25 +4296,23 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -4378,26 +4324,28 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>85</v>
@@ -4412,19 +4360,19 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4449,11 +4397,11 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -4471,13 +4419,13 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -4486,21 +4434,21 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4526,10 +4474,10 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4580,7 +4528,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4598,7 +4546,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4609,7 +4557,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4638,7 +4586,7 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>134</v>
@@ -4679,19 +4627,19 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4657,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4720,7 +4668,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4728,10 +4676,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4743,26 +4691,26 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4792,23 +4740,25 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -4820,22 +4770,20 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4856,20 +4804,18 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4893,11 +4839,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4915,13 +4863,13 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4933,18 +4881,18 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4964,19 +4912,21 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5024,7 +4974,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5036,35 +4986,35 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -5073,21 +5023,21 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5123,48 +5073,48 @@
         <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5172,7 +5122,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
@@ -5187,26 +5137,26 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>76</v>
@@ -5248,7 +5198,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5266,20 +5216,22 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5300,18 +5252,20 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5335,13 +5289,11 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5359,13 +5311,13 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5377,18 +5329,18 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5408,21 +5360,19 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5470,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5482,35 +5432,35 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5519,21 +5469,21 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5569,48 +5519,48 @@
         <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5618,7 +5568,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
@@ -5633,26 +5583,26 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5694,7 +5644,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5712,22 +5662,20 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5748,20 +5696,18 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5785,11 +5731,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5807,13 +5755,13 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5825,18 +5773,18 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5856,19 +5804,21 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5916,7 +5866,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5928,35 +5878,35 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5965,21 +5915,21 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6015,48 +5965,48 @@
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6064,7 +6014,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>85</v>
@@ -6079,26 +6029,26 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>76</v>
@@ -6140,7 +6090,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6158,20 +6108,22 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6192,18 +6144,20 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6227,13 +6181,11 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6251,13 +6203,13 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -6269,18 +6221,18 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6300,21 +6252,19 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6362,7 +6312,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6374,35 +6324,35 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -6411,21 +6361,21 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6461,48 +6411,48 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6510,7 +6460,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>85</v>
@@ -6525,26 +6475,26 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6586,7 +6536,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6604,22 +6554,20 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6640,20 +6588,18 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6677,11 +6623,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6699,13 +6647,13 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6717,18 +6665,18 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6748,19 +6696,21 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6808,7 +6758,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6820,35 +6770,35 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -6857,21 +6807,21 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6907,48 +6857,48 @@
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6956,7 +6906,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>85</v>
@@ -6971,26 +6921,26 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>76</v>
@@ -7032,7 +6982,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7050,20 +7000,22 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7084,18 +7036,20 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7119,13 +7073,11 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7143,13 +7095,13 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7161,18 +7113,18 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7192,21 +7144,19 @@
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7254,7 +7204,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7266,35 +7216,35 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -7303,21 +7253,21 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7353,48 +7303,48 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7402,7 +7352,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>85</v>
@@ -7417,26 +7367,26 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>76</v>
@@ -7478,7 +7428,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7496,22 +7446,20 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7532,20 +7480,18 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7569,11 +7515,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7591,13 +7539,13 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -7609,18 +7557,18 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7640,19 +7588,21 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7700,7 +7650,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7712,35 +7662,35 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7749,21 +7699,21 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7799,48 +7749,48 @@
         <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7848,7 +7798,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>85</v>
@@ -7863,26 +7813,26 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>76</v>
@@ -7924,7 +7874,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7942,20 +7892,22 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7976,18 +7928,20 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8011,13 +7965,11 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8035,13 +7987,13 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8053,18 +8005,18 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8084,21 +8036,19 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8146,7 +8096,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8158,35 +8108,35 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8195,21 +8145,21 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8245,48 +8195,48 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8294,7 +8244,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>85</v>
@@ -8309,26 +8259,26 @@
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
@@ -8370,7 +8320,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8388,22 +8338,20 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8424,20 +8372,18 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8461,11 +8407,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8483,13 +8431,13 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -8501,18 +8449,18 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8532,19 +8480,21 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8592,7 +8542,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8604,35 +8554,35 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -8641,21 +8591,21 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8691,48 +8641,48 @@
         <v>76</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8740,7 +8690,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>85</v>
@@ -8755,26 +8705,26 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>76</v>
@@ -8816,7 +8766,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8834,18 +8784,18 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8871,15 +8821,17 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8927,7 +8879,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8945,26 +8897,26 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>85</v>
@@ -8979,18 +8931,18 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9038,10 +8990,10 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>85</v>
@@ -9053,21 +9005,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9090,18 +9042,18 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9149,7 +9101,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9164,21 +9116,21 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9201,20 +9153,18 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9262,7 +9212,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9277,21 +9227,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9314,20 +9264,18 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9375,7 +9323,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9393,26 +9341,26 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>85</v>
@@ -9427,16 +9375,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9486,10 +9434,10 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>85</v>
@@ -9501,21 +9449,21 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9526,7 +9474,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9538,17 +9486,15 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9597,13 +9543,13 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9612,21 +9558,21 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9646,20 +9592,18 @@
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9708,7 +9652,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9720,35 +9664,35 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -9757,19 +9701,19 @@
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>343</v>
+        <v>222</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9819,28 +9763,28 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9852,37 +9796,39 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9930,28 +9876,28 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9970,7 +9916,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>76</v>
@@ -9982,16 +9928,20 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10015,13 +9965,11 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10045,7 +9993,7 @@
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10054,21 +10002,21 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10076,7 +10024,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>85</v>
@@ -10088,19 +10036,23 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>362</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>208</v>
+        <v>363</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10148,10 +10100,10 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>85</v>
@@ -10160,35 +10112,35 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -10200,18 +10152,20 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10259,25 +10213,25 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>217</v>
+        <v>371</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10288,42 +10242,42 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>140</v>
+        <v>382</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10372,28 +10326,28 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10401,7 +10355,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10412,7 +10366,7 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>76</v>
@@ -10427,17 +10381,15 @@
         <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10465,7 +10417,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10483,13 +10435,13 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -10498,21 +10450,21 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10520,10 +10472,10 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>76</v>
@@ -10535,20 +10487,18 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10596,13 +10546,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10611,21 +10561,21 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10636,7 +10586,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>76</v>
@@ -10645,23 +10595,21 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>385</v>
+        <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10685,13 +10633,11 @@
         <v>76</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10709,13 +10655,13 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10727,18 +10673,18 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10761,20 +10707,18 @@
         <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>392</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10798,13 +10742,13 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10822,7 +10766,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10840,10 +10784,10 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -10851,7 +10795,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10871,19 +10815,19 @@
         <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>191</v>
+        <v>414</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10909,11 +10853,13 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X81" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y81" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -10931,7 +10877,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10946,13 +10892,13 @@
         <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -10960,7 +10906,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10980,19 +10926,19 @@
         <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11018,13 +10964,11 @@
         <v>76</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>76</v>
+        <v>423</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -11042,7 +10986,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11057,13 +11001,13 @@
         <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -11071,7 +11015,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11091,21 +11035,23 @@
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>191</v>
+        <v>426</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11129,11 +11075,13 @@
         <v>76</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X83" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y83" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>76</v>
@@ -11151,7 +11099,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11169,18 +11117,18 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11191,7 +11139,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>76</v>
@@ -11200,19 +11148,19 @@
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11240,11 +11188,9 @@
       <c r="W84" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X84" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11262,13 +11208,13 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -11280,7 +11226,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11291,7 +11237,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11314,16 +11260,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11373,7 +11319,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11388,21 +11334,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>76</v>
+        <v>441</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11425,17 +11371,15 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -11460,11 +11404,13 @@
         <v>76</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X86" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y86" t="s" s="2">
-        <v>436</v>
+        <v>76</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>76</v>
@@ -11482,7 +11428,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11500,7 +11446,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11511,7 +11457,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11522,7 +11468,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>76</v>
@@ -11534,20 +11480,16 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>439</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>440</v>
+        <v>217</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>76</v>
       </c>
@@ -11595,25 +11537,25 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>437</v>
+        <v>220</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -11624,11 +11566,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11647,16 +11589,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>444</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>446</v>
+        <v>134</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11682,11 +11624,13 @@
         <v>76</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X88" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y88" t="s" s="2">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -11704,7 +11648,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>443</v>
+        <v>226</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11716,13 +11660,13 @@
         <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11733,11 +11677,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11750,24 +11694,26 @@
         <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>450</v>
+        <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
       </c>
@@ -11815,7 +11761,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11827,24 +11773,24 @@
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11855,7 +11801,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>76</v>
@@ -11867,13 +11813,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11900,13 +11846,11 @@
         <v>76</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11924,13 +11868,13 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -11942,7 +11886,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11953,7 +11897,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11961,7 +11905,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>85</v>
@@ -11976,13 +11920,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>457</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>208</v>
+        <v>458</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>209</v>
+        <v>459</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12033,10 +11977,10 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>210</v>
+        <v>456</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>85</v>
@@ -12045,13 +11989,13 @@
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>460</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -12062,11 +12006,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12085,18 +12029,20 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>131</v>
+        <v>462</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>213</v>
+        <v>464</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
       </c>
@@ -12144,7 +12090,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>217</v>
+        <v>461</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12156,13 +12102,13 @@
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>211</v>
+        <v>467</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12173,11 +12119,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12190,26 +12136,24 @@
         <v>76</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>362</v>
+        <v>469</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>363</v>
+        <v>470</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>76</v>
       </c>
@@ -12233,13 +12177,11 @@
         <v>76</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>76</v>
@@ -12257,7 +12199,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>364</v>
+        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12269,456 +12211,18 @@
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>128</v>
+        <v>473</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X94" s="2"/>
-      <c r="Y94" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X97" s="2"/>
-      <c r="Y97" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM97" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -1324,10 +1324,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcomeCodes_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1875,7 +1872,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.48828125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="42.5234375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -10744,11 +10741,9 @@
       <c r="W80" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X80" t="s" s="2">
+      <c r="X80" s="2"/>
+      <c r="Y80" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10784,7 +10779,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10795,7 +10790,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10818,16 +10813,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10877,7 +10872,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10895,7 +10890,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10906,7 +10901,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10932,13 +10927,13 @@
         <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10968,7 +10963,7 @@
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -10986,7 +10981,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11004,7 +10999,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11015,7 +11010,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11038,19 +11033,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>331</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11099,7 +11094,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11117,7 +11112,7 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11128,7 +11123,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11154,13 +11149,13 @@
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11190,7 +11185,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11208,7 +11203,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11226,7 +11221,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11237,7 +11232,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11260,16 +11255,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11319,7 +11314,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11334,21 +11329,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11374,10 +11369,10 @@
         <v>340</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11428,7 +11423,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11446,7 +11441,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11457,7 +11452,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11566,7 +11561,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11677,7 +11672,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11790,7 +11785,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11816,10 +11811,10 @@
         <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11850,7 +11845,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11868,7 +11863,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11886,7 +11881,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11897,7 +11892,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11920,13 +11915,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11977,7 +11972,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>85</v>
@@ -11995,7 +11990,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -12006,7 +12001,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12029,19 +12024,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12090,7 +12085,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12108,7 +12103,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12119,7 +12114,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12145,13 +12140,13 @@
         <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12181,7 +12176,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>76</v>
@@ -12199,7 +12194,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12217,7 +12212,7 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -512,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>本Procedrure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
+    <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -1021,7 +1021,7 @@
     <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
-    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcdedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
+    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
@@ -1162,7 +1162,7 @@
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner　医療従事者への参照</t>
+    <t>The reference to the practitioner 医療従事者への参照</t>
   </si>
   <si>
     <t>The practitioner who was involved in the procedure.
@@ -1273,7 +1273,7 @@
     <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
   </si>
   <si>
-    <t>なぜそのようなPlocedureを行ったのか、その正当性を示す。</t>
+    <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
   </si>
   <si>
     <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JPーCORE】
+【JP-Core仕様】
 Observation_LabResultにならい、任意。</t>
   </si>
   <si>
@@ -563,13 +563,13 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-CORE】
+【JP-Core仕様】
 Observation_LabResultにならい、任意。</t>
   </si>
   <si>
@@ -585,7 +585,7 @@
     <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
+    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP-Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -1136,7 +1136,7 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-CORE】
+ 【JP-Core仕様】
 当面利用しない。</t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
@@ -1485,7 +1485,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -539,8 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JP-Core仕様】
-Observation_LabResultにならい、任意。</t>
+【JP-Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -569,8 +568,7 @@
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-Core仕様】
-Observation_LabResultにならい、任意。</t>
+【JP-Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1021,7 +1019,7 @@
     <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
-    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
+    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
@@ -1056,7 +1054,7 @@
 記録を記録し、その内容に責任を負う個人。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1136,8 +1134,7 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-Core仕様】
-当面利用しない。</t>
+ 【JP-Core仕様】当面利用しない。</t>
   </si>
   <si>
     <t>Allows disambiguation of the types of involvement of different performers.</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -562,7 +562,7 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
@@ -1463,7 +1463,7 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
@@ -1482,7 +1482,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JP-Core仕様】Observation_LabResultにならい、任意。</t>
+【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -562,13 +562,13 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-Core仕様】Observation_LabResultにならい、任意。</t>
+【JP Core仕様】Observation_LabResultにならい、任意。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -583,7 +583,7 @@
     <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP-Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
+    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -652,7 +652,7 @@
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategoryCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1134,13 +1134,13 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-Core仕様】当面利用しない。</t>
+ 【JP Core仕様】当面利用しない。</t>
   </si>
   <si>
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRoleCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1248,7 +1248,7 @@
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReasonCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReason_VS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1321,7 +1321,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcomeCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcome_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1363,7 +1363,7 @@
 合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureConditionCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCondition_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1401,7 +1401,7 @@
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUpCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1463,10 +1463,10 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1482,7 +1482,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -278,7 +278,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -696,6 +696,10 @@
   </si>
   <si>
     <t>Procedure.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4021,13 +4025,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4078,7 +4082,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4096,7 +4100,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4107,7 +4111,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4136,7 +4140,7 @@
         <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -4177,19 +4181,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4207,7 +4211,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4218,7 +4222,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4241,19 +4245,19 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4290,17 +4294,17 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4318,21 +4322,21 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4354,19 +4358,19 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4413,7 +4417,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4431,18 +4435,18 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4465,13 +4469,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4522,7 +4526,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4540,7 +4544,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4551,7 +4555,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4580,7 +4584,7 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>134</v>
@@ -4621,19 +4625,19 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4651,7 +4655,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4662,7 +4666,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4688,23 +4692,23 @@
         <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4746,7 +4750,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4764,18 +4768,18 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4798,16 +4802,16 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4857,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4875,18 +4879,18 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4912,14 +4916,14 @@
         <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4968,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4986,18 +4990,18 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5020,17 +5024,17 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5079,7 +5083,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5097,18 +5101,18 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5131,19 +5135,19 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5192,7 +5196,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5210,21 +5214,21 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
@@ -5246,19 +5250,19 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5287,7 +5291,7 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5305,7 +5309,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5323,18 +5327,18 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5357,13 +5361,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5414,7 +5418,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5432,7 +5436,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5443,7 +5447,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5472,7 +5476,7 @@
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -5513,19 +5517,19 @@
         <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5543,7 +5547,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5554,7 +5558,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5580,23 +5584,23 @@
         <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5638,7 +5642,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5656,18 +5660,18 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5690,16 +5694,16 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5749,7 +5753,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5767,18 +5771,18 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5804,14 +5808,14 @@
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5860,7 +5864,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5878,18 +5882,18 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5912,17 +5916,17 @@
         <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5971,7 +5975,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5989,18 +5993,18 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6023,19 +6027,19 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6084,7 +6088,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6102,21 +6106,21 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
@@ -6138,19 +6142,19 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6179,7 +6183,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6197,7 +6201,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6215,18 +6219,18 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6249,13 +6253,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6306,7 +6310,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6324,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6335,7 +6339,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6364,7 +6368,7 @@
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>134</v>
@@ -6405,19 +6409,19 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6435,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6446,7 +6450,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6472,23 +6476,23 @@
         <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6530,7 +6534,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6548,18 +6552,18 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6582,16 +6586,16 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6641,7 +6645,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6659,18 +6663,18 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6696,14 +6700,14 @@
         <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6752,7 +6756,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6770,18 +6774,18 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6804,17 +6808,17 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6863,7 +6867,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6881,18 +6885,18 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6915,19 +6919,19 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6976,7 +6980,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6994,21 +6998,21 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
@@ -7030,19 +7034,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -7071,7 +7075,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7089,7 +7093,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7107,18 +7111,18 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7141,13 +7145,13 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7198,7 +7202,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7216,7 +7220,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7227,7 +7231,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7256,7 +7260,7 @@
         <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>134</v>
@@ -7297,19 +7301,19 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7327,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7338,7 +7342,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7364,23 +7368,23 @@
         <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>76</v>
@@ -7422,7 +7426,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7440,18 +7444,18 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7474,16 +7478,16 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7533,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7551,18 +7555,18 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7588,14 +7592,14 @@
         <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7644,7 +7648,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7662,18 +7666,18 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7696,17 +7700,17 @@
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7755,7 +7759,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7773,18 +7777,18 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7807,19 +7811,19 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7868,7 +7872,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7886,21 +7890,21 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
@@ -7922,19 +7926,19 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7963,7 +7967,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -7981,7 +7985,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7999,18 +8003,18 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8033,13 +8037,13 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8090,7 +8094,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8108,7 +8112,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8119,7 +8123,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8148,7 +8152,7 @@
         <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>134</v>
@@ -8189,19 +8193,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8219,7 +8223,7 @@
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8230,7 +8234,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8256,23 +8260,23 @@
         <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
@@ -8314,7 +8318,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8332,18 +8336,18 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8366,16 +8370,16 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8425,7 +8429,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8443,18 +8447,18 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8480,14 +8484,14 @@
         <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8536,7 +8540,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8554,18 +8558,18 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8588,17 +8592,17 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8647,7 +8651,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8665,18 +8669,18 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8699,19 +8703,19 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8760,7 +8764,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8778,18 +8782,18 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8812,19 +8816,19 @@
         <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8873,7 +8877,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8891,22 +8895,22 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8925,16 +8929,16 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8984,7 +8988,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>85</v>
@@ -8999,21 +9003,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9036,16 +9040,16 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9095,7 +9099,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9110,21 +9114,21 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9147,16 +9151,16 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9206,7 +9210,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9221,21 +9225,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9258,16 +9262,16 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9317,7 +9321,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9335,10 +9339,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9346,7 +9350,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9369,16 +9373,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9428,7 +9432,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9446,10 +9450,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9457,7 +9461,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9480,13 +9484,13 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9537,7 +9541,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9552,10 +9556,10 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9566,7 +9570,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9589,13 +9593,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9646,7 +9650,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9664,7 +9668,7 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9675,7 +9679,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9704,7 +9708,7 @@
         <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>134</v>
@@ -9757,7 +9761,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9775,7 +9779,7 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9786,11 +9790,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9812,10 +9816,10 @@
         <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>134</v>
@@ -9870,7 +9874,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9899,7 +9903,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9925,16 +9929,16 @@
         <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -9963,7 +9967,7 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -9981,7 +9985,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9996,21 +10000,21 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10033,19 +10037,19 @@
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10094,7 +10098,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>85</v>
@@ -10109,21 +10113,21 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10146,19 +10150,19 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10207,7 +10211,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10225,7 +10229,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10236,7 +10240,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10259,19 +10263,19 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10320,7 +10324,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10338,10 +10342,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10349,7 +10353,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10375,13 +10379,13 @@
         <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10411,7 +10415,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10429,7 +10433,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10444,13 +10448,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10458,7 +10462,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10481,16 +10485,16 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10540,7 +10544,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10555,13 +10559,13 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10569,7 +10573,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10595,13 +10599,13 @@
         <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10631,7 +10635,7 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10649,7 +10653,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10667,18 +10671,18 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10704,13 +10708,13 @@
         <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10740,7 +10744,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10758,7 +10762,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10776,7 +10780,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10787,7 +10791,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10810,16 +10814,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10869,7 +10873,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10887,7 +10891,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10898,7 +10902,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10924,13 +10928,13 @@
         <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10960,7 +10964,7 @@
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -10978,7 +10982,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10996,7 +11000,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11007,7 +11011,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11030,19 +11034,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11091,7 +11095,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11109,7 +11113,7 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11120,7 +11124,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11146,13 +11150,13 @@
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11182,7 +11186,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11200,7 +11204,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11218,7 +11222,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11229,7 +11233,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11252,16 +11256,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11311,7 +11315,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11326,21 +11330,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11363,13 +11367,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11420,7 +11424,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11438,7 +11442,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11449,7 +11453,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11472,13 +11476,13 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11529,7 +11533,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -11547,7 +11551,7 @@
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -11558,7 +11562,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11587,7 +11591,7 @@
         <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>134</v>
@@ -11640,7 +11644,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11658,7 +11662,7 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11669,11 +11673,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11695,10 +11699,10 @@
         <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>134</v>
@@ -11753,7 +11757,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11782,7 +11786,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11808,10 +11812,10 @@
         <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11842,7 +11846,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11860,7 +11864,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11878,7 +11882,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11889,7 +11893,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11912,13 +11916,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11969,7 +11973,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>85</v>
@@ -11987,7 +11991,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11998,7 +12002,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12021,19 +12025,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12082,7 +12086,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12100,7 +12104,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12111,7 +12115,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12137,13 +12141,13 @@
         <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12173,7 +12177,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>76</v>
@@ -12191,7 +12195,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12209,7 +12213,7 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -925,7 +925,7 @@
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesICHI_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Procedure.code.text</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -372,7 +372,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -497,7 +497,7 @@
     <t>Instantiates FHIR protocol or definition</t>
   </si>
   <si>
-    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダーセット、その他の定義を指すURL。</t>
+    <t>本Procedureの全部または一部を遵守するFHIR定義のプロトコル、ガイドライン、オーダセット、その他の定義を指すURL。</t>
   </si>
   <si>
     <t>Event.instantiatesCanonical</t>
@@ -512,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
+    <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t>A request for this procedure このプロシージャの依頼情報</t>
+    <t>A request for this procedure. このプロシージャの依頼情報</t>
   </si>
   <si>
     <t>このプロシージャの依頼情報の詳細を含むリソースへの参照。</t>
@@ -559,7 +559,7 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
+    <t>Part of referenced event. このプロシジャーが構成要素やステップとなるより大きな医療行為</t>
   </si>
   <si>
     <t>A larger event of which this particular procedure is a component or step.【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
@@ -586,7 +586,7 @@
     <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
-    <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
+    <t>The "unknown" code is not to be used to convey other statuses. The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
 「不明な」コードは、他のステータスを伝えるために使用されるべきではない。ステータスの1つが当てはまる場合、「不明」コードを使用する必要があるが、オーサリングシステムはプロシージャの現在の状態を認識していない。
 ステータスにリソースを現在無効としてマークするコードが含まれているため、この要素は修飾子としてラベル付けされる。</t>
@@ -621,10 +621,10 @@
 </t>
   </si>
   <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>プロシージャの現在の状態の理由を設定する。</t>
+    <t>Reason for current status このプロシジャーの進捗の理由（未完了であったり中止されたことの理由）</t>
+  </si>
+  <si>
+    <t>プロシージャの現在の進捗の理由を設定する。</t>
   </si>
   <si>
     <t>This is generally only used for "exception" statuses such as "not-done", "suspended" or "aborted". The reason for performing the event at all is captured in reasonCode, not here.
@@ -634,7 +634,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureNotPerformedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureNotPerformedReason_VS</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -646,13 +646,13 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>Classification of the procedure</t>
+    <t>Classification of the procedure. このプロシジャーの分類カテゴリ</t>
   </si>
   <si>
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the procedure プロシジャーの識別子</t>
+    <t>Identification of the procedure. このプロシジャーの識別子</t>
   </si>
   <si>
     <t>行われた具体的な手順。手技の正確な性質がコード化できない場合はテキストを使用する（例：「腹腔鏡下虫垂切除術」）</t>
@@ -680,7 +680,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesMedical_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -768,6 +768,9 @@
     <t>medical</t>
   </si>
   <si>
+    <t>医科診療行為マスタ ValueSet</t>
+  </si>
+  <si>
     <t>Procedure.code.coding.id</t>
   </si>
   <si>
@@ -789,7 +792,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesMedical_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesMedical_CS</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -895,37 +898,46 @@
     <t>stem7</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
+    <t>歯科診療行為マスタ ValueSet</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
   </si>
   <si>
     <t>dental</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesDental_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesDental_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesDental_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesDental_CS</t>
   </si>
   <si>
     <t>nurse</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesNurse_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesNurse_CS</t>
+    <t>看護行為マスタ ValueSet</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesNurse_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesNurse_CS</t>
   </si>
   <si>
     <t>ichi</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
+    <t>ICHI (International Classification of Health Interventions) ValueSet</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesICHI_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Procedure.code.text</t>
@@ -963,7 +975,7 @@
 </t>
   </si>
   <si>
-    <t>Who the procedure was performed on プロシジャーが実施された対象人</t>
+    <t>Who the procedure was performed on. 誰にこのプロシジャーが実施されたか</t>
   </si>
   <si>
     <t>The person, animal or group on which the procedure was performed.
@@ -992,10 +1004,10 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of 一部として作成されたエンカウンター</t>
-  </si>
-  <si>
-    <t>プロシジャーが作成または実行されたエンカウンター、またはこの記録の作成が緊密に関連しているエンカウンター。</t>
+    <t>Encounter created as part of. このプロシジャーの記録が作成された受療の状況</t>
+  </si>
+  <si>
+    <t>プロシジャーが作成または実行された受療の状況、またはこの記録の作成が緊密に関連している受療の状況。</t>
   </si>
   <si>
     <t>これは通常、イベントが発生した出会いの中で行われるが、活動によっては、出会いの公式な終了前または終了後に開始されても、出会いの文脈と結びついている場合がある。</t>
@@ -1020,7 +1032,7 @@
 PeriodstringAgeRange</t>
   </si>
   <si>
-    <t>When the procedure was performed プロシジャーが実施された時期</t>
+    <t>When the procedure was performed. いつこのプロシジャーが実施されたか</t>
   </si>
   <si>
     <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procedureの長さを把握することも可能。</t>
@@ -1029,7 +1041,7 @@
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
 年齢は一般的に、患者が手技が行われた年齢を報告するときに使用される。
 範囲は、一般的に、患者が手順が実行されたときに年齢範囲を報告する場合に使用される。たとえば、20〜25歳の間など。
-dateTimeは、ミリ秒の精度を持たない可能性がある過去の手順として報告される一部の手順と、エンカウンターの期間において実施され文書化された他の手順が、タイムゾーンでより正確なUTCタイムスタンプを持つ可能性があるため、さまざまな精度をサポートする。</t>
+dateTimeは、ミリ秒の精度を持たない可能性がある過去の手順として報告される一部の手順と、Encounterの期間において実施され文書化された他の手順が、タイムゾーンでより正確なUTCタイムスタンプを持つ可能性があるため、さまざまな精度をサポートする。</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1051,7 +1063,7 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the procedure プロシジャーを記録した人</t>
+    <t>Who recorded the procedure. このプロシジャーを記録した人</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
@@ -1071,11 +1083,11 @@
     <t>Procedure.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this procedure プロシジャーを実施したと報告する人</t>
+    <t>Person who asserts this procedure. このプロシジャーの実施の記録者</t>
   </si>
   <si>
     <t>Individual who is making the procedure statement.
-プロシジャー記録を作成している個人</t>
+プロシジャーの実施記録を作成した個人。</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role</t>
@@ -1091,7 +1103,7 @@
 </t>
   </si>
   <si>
-    <t>The people who performed the procedure プロシジャーを実施した人々</t>
+    <t>The people who performed the procedure. このプロシジャーの実施者</t>
   </si>
   <si>
     <t>Limited to "real" people rather than equipment.
@@ -1130,7 +1142,7 @@
     <t>Procedure.performer.function</t>
   </si>
   <si>
-    <t>Type of performance</t>
+    <t>Type of performance 実施者の役割（ロール）</t>
   </si>
   <si>
     <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.
@@ -1144,7 +1156,7 @@
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1163,7 +1175,7 @@
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner 医療従事者への参照</t>
+    <t>The reference to the practitioner. 医療従事者への参照</t>
   </si>
   <si>
     <t>The practitioner who was involved in the procedure.
@@ -1195,11 +1207,11 @@
 </t>
   </si>
   <si>
-    <t>Organization the device or practitioner was acting for 従事した組織</t>
+    <t>Organization the device or practitioner was acting for. 従事した組織</t>
   </si>
   <si>
     <t>The organization the device or practitioner was acting on behalf of.
-従事した組織</t>
+従事した組織。</t>
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索によるものと、リソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索するものがある。</t>
@@ -1218,7 +1230,7 @@
 </t>
   </si>
   <si>
-    <t>Where the procedure happened  プロシジャーが実施された場所</t>
+    <t>Where the procedure happened. このプロシジャーが実施された場所</t>
   </si>
   <si>
     <t>プロシジャーが実施された場所。
@@ -1237,14 +1249,14 @@
     <t>Procedure.reasonCode</t>
   </si>
   <si>
-    <t>Coded reason procedure performed プロシジャーが実施された理由コード</t>
+    <t>Coded reason procedure performed. このプロシジャーが実施された理由コード</t>
   </si>
   <si>
     <t>処置が行われたコード化された理由。
 これはある種のコード化された実体であるかもしれないし、単にテキストとして存在するかもしれない。</t>
   </si>
   <si>
-    <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.
+    <t>Use Procedure.reasonCode when a code sufficiently describes the reason. Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.
 ひとつのコードが理由を十分に説明している場合は、Procedure.reasonCodeを使用する。
 リソースを参照する場合は、Procedure.reasonReferenceを使用する。これにより、開始日など、より多くの情報を伝達できる。
 Procedure.reasonCodeとProcedure.reasonReferenceは、重複することを意図したものではない。単一の理由で、Procedure.reasonCodeまたはProcedure.reasonReferenceのいずれかだけを使用できる。
@@ -1252,7 +1264,7 @@
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureReason_VS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1271,7 +1283,7 @@
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
+    <t>The justification that the procedure was performed. このプロシジャーが実施された正当性</t>
   </si>
   <si>
     <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
@@ -1292,7 +1304,7 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites 対象の人体部位</t>
+    <t>Target body sites. このプロシジャーの対象となった人体部位</t>
   </si>
   <si>
     <t>詳細かつ構造化された解剖学的な位置情報。複数の場所を指定することができる。例えば、1つの病変に対して複数のパンチングバイオプシーを行うことができる。</t>
@@ -1302,7 +1314,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureBodySite_VS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1314,7 +1326,7 @@
     <t>Procedure.outcome</t>
   </si>
   <si>
-    <t>The result of procedure プロシジャーの結果</t>
+    <t>The result of procedure. このプロシジャーのアウトカム</t>
   </si>
   <si>
     <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?
@@ -1325,7 +1337,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcome_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureOutcome_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1338,7 +1350,7 @@
 </t>
   </si>
   <si>
-    <t>Any report resulting from the procedure プロシジャーからのなんらかの結果報告</t>
+    <t>Any report resulting from the procedure. このプロシジャーの結果報告</t>
   </si>
   <si>
     <t>This could be a histology result, pathology report, surgical report, etc.
@@ -1356,7 +1368,7 @@
     <t>Procedure.complication</t>
   </si>
   <si>
-    <t>Complication following the procedure プロシジャーに起こった合併症</t>
+    <t>Complication following the procedure. このプロシジャーによる合併症</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period. These are generally tracked separately from the notes, which will typically describe the procedure itself rather than any 'post procedure' issues.
@@ -1367,7 +1379,7 @@
 合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCondition_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCondition_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1380,7 +1392,7 @@
 </t>
   </si>
   <si>
-    <t>A condition that is a result of the procedure プロシジャーの結果であるような患者状態</t>
+    <t>A condition that is a result of the procedure. このプロシジャーの合併症の結果生じた患者状態</t>
   </si>
   <si>
     <t>Any complications that occurred during the procedure, or in the immediate post-performance period.
@@ -1394,7 +1406,7 @@
     <t>Procedure.followUp</t>
   </si>
   <si>
-    <t>Instructions for follow up フォローアップの指示</t>
+    <t>Instructions for follow up. 今後のフォローアップ指示</t>
   </si>
   <si>
     <t>If the procedure required specific follow up - e.g. removal of sutures. The follow up may be represented as a simple note or could potentially be more complex, in which case the CarePlan resource can be used.
@@ -1402,10 +1414,10 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureFollowUp_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1418,16 +1430,16 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure プロシジャーの関する追加情報</t>
+    <t>Additional information about the procedure. このプロシジャーの関する追加情報</t>
   </si>
   <si>
     <t>Any other notes and comments about the procedure.
-Procedureに関する注意点やコメントなど。</t>
+このプロシジャーに関する注意点やコメントなど。</t>
   </si>
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
+*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1442,7 +1454,7 @@
     <t>Procedure.focalDevice</t>
   </si>
   <si>
-    <t>Manipulated, implanted, or removed device 操作、埋め込み、または削除されたデバイス</t>
+    <t>Manipulated, implanted, or removed device. このプロシジャーの際に操作、埋め込み、または削除されたデバイス</t>
   </si>
   <si>
     <t>A device that is implanted, removed or otherwise manipulated (calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.
@@ -1470,7 +1482,7 @@
     <t>Procedure中にデバイスに起こった変化の種類。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1499,7 +1511,7 @@
 </t>
   </si>
   <si>
-    <t>Items used during procedure プロシジャー中に使用されるアイテム</t>
+    <t>Items used during procedure. プロシジャー中に使用されるアイテム</t>
   </si>
   <si>
     <t>Identifies medications, devices and any other substance used as part of the procedure.
@@ -1520,7 +1532,7 @@
     <t>Procedure.usedCode</t>
   </si>
   <si>
-    <t>Coded items used during the procedure プロシジャー中に使用したアイテムのコード</t>
+    <t>Coded items used during the procedure. プロシジャー中に使用したアイテムのコード</t>
   </si>
   <si>
     <t>Identifies coded items that were used as part of the procedure.
@@ -1531,7 +1543,7 @@
 実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceKind_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceKind_VS</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1874,7 +1886,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="42.5234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4361,7 +4373,7 @@
         <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>231</v>
@@ -4446,7 +4458,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4555,7 +4567,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4666,7 +4678,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4692,23 +4704,23 @@
         <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4750,7 +4762,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4768,18 +4780,18 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4805,13 +4817,13 @@
         <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4861,7 +4873,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4879,18 +4891,18 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4916,14 +4928,14 @@
         <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4972,7 +4984,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4990,18 +5002,18 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5027,14 +5039,14 @@
         <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5083,7 +5095,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5101,18 +5113,18 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5135,19 +5147,19 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5196,7 +5208,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5214,13 +5226,13 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
@@ -5228,7 +5240,7 @@
         <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
@@ -5253,7 +5265,7 @@
         <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>231</v>
@@ -5291,7 +5303,7 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5338,7 +5350,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5447,7 +5459,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5558,7 +5570,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5584,23 +5596,23 @@
         <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5642,7 +5654,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5660,18 +5672,18 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5697,13 +5709,13 @@
         <v>217</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5753,7 +5765,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5771,18 +5783,18 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5808,14 +5820,14 @@
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5864,7 +5876,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5882,18 +5894,18 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5919,14 +5931,14 @@
         <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5975,7 +5987,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5993,18 +6005,18 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6027,19 +6039,19 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6088,7 +6100,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6106,13 +6118,13 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39">
@@ -6120,7 +6132,7 @@
         <v>228</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
@@ -6183,7 +6195,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6230,7 +6242,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6339,7 +6351,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6450,7 +6462,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6476,23 +6488,23 @@
         <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6534,7 +6546,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6552,18 +6564,18 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6589,13 +6601,13 @@
         <v>217</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6645,7 +6657,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6663,18 +6675,18 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6700,14 +6712,14 @@
         <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6756,7 +6768,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6774,18 +6786,18 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6811,14 +6823,14 @@
         <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6867,7 +6879,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6885,18 +6897,18 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6919,19 +6931,19 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6980,7 +6992,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6998,13 +7010,13 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47">
@@ -7012,7 +7024,7 @@
         <v>228</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
@@ -7037,7 +7049,7 @@
         <v>229</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>231</v>
@@ -7075,7 +7087,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7122,7 +7134,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7231,7 +7243,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7342,7 +7354,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7368,23 +7380,23 @@
         <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>76</v>
@@ -7426,7 +7438,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7444,18 +7456,18 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7481,13 +7493,13 @@
         <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7537,7 +7549,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7555,18 +7567,18 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7592,14 +7604,14 @@
         <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7648,7 +7660,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7666,18 +7678,18 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7703,14 +7715,14 @@
         <v>217</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7759,7 +7771,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7777,18 +7789,18 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7811,19 +7823,19 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7872,7 +7884,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7890,13 +7902,13 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55">
@@ -7904,7 +7916,7 @@
         <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
@@ -7929,7 +7941,7 @@
         <v>229</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>231</v>
@@ -7967,7 +7979,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8014,7 +8026,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8123,7 +8135,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8234,7 +8246,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8260,23 +8272,23 @@
         <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
@@ -8318,7 +8330,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8336,18 +8348,18 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8373,13 +8385,13 @@
         <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8429,7 +8441,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8447,18 +8459,18 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8484,14 +8496,14 @@
         <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8540,7 +8552,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8558,18 +8570,18 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8595,14 +8607,14 @@
         <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8651,7 +8663,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8669,18 +8681,18 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8703,19 +8715,19 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8764,7 +8776,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8782,18 +8794,18 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8819,16 +8831,16 @@
         <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8877,7 +8889,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8895,22 +8907,22 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8929,16 +8941,16 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8988,7 +9000,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>85</v>
@@ -9003,21 +9015,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9040,16 +9052,16 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9099,7 +9111,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9114,21 +9126,21 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9151,16 +9163,16 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9210,7 +9222,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9225,21 +9237,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9262,16 +9274,16 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9321,7 +9333,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9339,10 +9351,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9350,7 +9362,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9373,16 +9385,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9432,7 +9444,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9450,10 +9462,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9461,7 +9473,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9484,13 +9496,13 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9541,7 +9553,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9556,10 +9568,10 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9570,7 +9582,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9679,7 +9691,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9790,11 +9802,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9816,10 +9828,10 @@
         <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>134</v>
@@ -9874,7 +9886,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9903,7 +9915,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9929,16 +9941,16 @@
         <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -9967,7 +9979,7 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -9985,7 +9997,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10000,21 +10012,21 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10037,19 +10049,19 @@
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10098,7 +10110,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>85</v>
@@ -10113,21 +10125,21 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10150,19 +10162,19 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10211,7 +10223,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10229,7 +10241,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10240,7 +10252,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10263,19 +10275,19 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10324,7 +10336,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10342,10 +10354,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10353,7 +10365,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10379,13 +10391,13 @@
         <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10415,25 +10427,25 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10448,13 +10460,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10462,7 +10474,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10485,16 +10497,16 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10544,7 +10556,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10559,13 +10571,13 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10573,7 +10585,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10599,13 +10611,13 @@
         <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10635,25 +10647,25 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10671,18 +10683,18 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10708,13 +10720,13 @@
         <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10744,25 +10756,25 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10780,7 +10792,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10791,7 +10803,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10814,16 +10826,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10873,7 +10885,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10891,7 +10903,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10902,7 +10914,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10928,13 +10940,13 @@
         <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10964,25 +10976,25 @@
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11000,7 +11012,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11011,7 +11023,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11034,19 +11046,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11095,7 +11107,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11113,7 +11125,7 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11124,7 +11136,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11150,13 +11162,13 @@
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11186,25 +11198,25 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11222,7 +11234,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11233,7 +11245,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11256,16 +11268,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11315,7 +11327,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11330,21 +11342,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11367,13 +11379,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11424,7 +11436,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11442,7 +11454,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11453,7 +11465,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11562,7 +11574,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11673,11 +11685,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11699,10 +11711,10 @@
         <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>134</v>
@@ -11757,7 +11769,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11786,7 +11798,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11812,10 +11824,10 @@
         <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11846,7 +11858,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11864,7 +11876,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11882,7 +11894,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11893,7 +11905,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11916,13 +11928,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11973,7 +11985,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>85</v>
@@ -11991,7 +12003,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -12002,7 +12014,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12025,19 +12037,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12086,7 +12098,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12104,7 +12116,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12115,7 +12127,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12141,13 +12153,13 @@
         <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12177,25 +12189,25 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12213,7 +12225,7 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-procedure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
